--- a/results/I3_N5_M2_T15_C150_DepCentral_s2_P4_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s2_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>662.9464731456711</v>
+        <v>500.714365082849</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.84647314566407</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>274.2400000000071</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.86</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.335169194456213</v>
+        <v>5.134510687494963</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5.799341493038749</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.17182228993174</v>
+        <v>10.17182228993175</v>
       </c>
     </row>
     <row r="6">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.516731437002262</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>82.15500000000058</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>71.81500000000059</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>70.85500000000059</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>70.01500000000058</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>76.06000000000058</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>186.6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>173.4900000000012</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>174.5700000000012</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>174.55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>177.9100000000012</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>140.6799999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>145.1249999999997</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>132.75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>143.5899999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>144.8949999999997</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>99.51000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>98.41000000000037</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>94.89000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>95.94000000000037</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>99.57500000000036</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.18000000000073</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>37.41500000000073</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.38500000000073</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.59500000000072</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>36.59000000000073</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>140.6799999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>145.1249999999997</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>132.75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>143.5899999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>144.8949999999997</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>186.6</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>173.4900000000012</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>174.5700000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>174.55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>177.9100000000012</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>36.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>23.49000000000117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>24.57000000000119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>24.55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>27.91000000000116</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6.66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>14.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>7.68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>14.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>11.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>6.935</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>10.14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>11.19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>14.21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
